--- a/biology/Botanique/Chrysophyllum_cainito/Chrysophyllum_cainito.xlsx
+++ b/biology/Botanique/Chrysophyllum_cainito/Chrysophyllum_cainito.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysophyllum cainito, le caïmitier ou caïnitier, est une espèce de plantes à fleurs du genre Chrysophyllum et de la famille des Sapotaceae. C'est un arbre fruitier exotique, des régions tropicales. Son fruit comestible est appelé pomme de lait.
 Originaire des basses terres du Mexique, d'Amérique centrale et des îles Caraïbes, il s'y cultive ainsi qu'aux Antilles. C'est un arbre auto-fertile qui mesure entre 6 et 30 m et dont l'écorce est riche en latex. Son feuillage est persistant.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce tropicale, des climats chauds. elle pousse aussi bien dans des régions humides que semi-arides. Peu exigeante sur la nature du sol, elle supporte toutefois mal les sols asphyxiants[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce tropicale, des climats chauds. elle pousse aussi bien dans des régions humides que semi-arides. Peu exigeante sur la nature du sol, elle supporte toutefois mal les sols asphyxiants.
 			Planche botanique de 1822
 			Arbre adulte, aux Philippines
 			Arbre jeune, cultivé au Bangladesh
@@ -525,8 +539,8 @@
 			Feuillage et fruits
 			Fruits (Pomme de lait)
 			Graines
-Le caïmitier est un arbre qui mesure entre 6 et 30 m et dont l'écorce est riche en latex. Son feuillage est persistant. Il est auto-fertile, les fleurs sont petites, jaune verdâtre et groupées par bouquet[4].
-Le fruit est sphérique. Sa couleur dépend des variétés, vertes ou pourpres. En coupe, la pulpe est blanchâtre, la peau contient du latex et les graines sont situées dans des loges disposées en étoile, ce qui lui vaut le nom de pomme étoilée[4].
+Le caïmitier est un arbre qui mesure entre 6 et 30 m et dont l'écorce est riche en latex. Son feuillage est persistant. Il est auto-fertile, les fleurs sont petites, jaune verdâtre et groupées par bouquet.
+Le fruit est sphérique. Sa couleur dépend des variétés, vertes ou pourpres. En coupe, la pulpe est blanchâtre, la peau contient du latex et les graines sont situées dans des loges disposées en étoile, ce qui lui vaut le nom de pomme étoilée.
 </t>
         </is>
       </c>
@@ -555,12 +569,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
-En classification phylogénétique APG III (2009)[5], il est classé dans le genre Chrysophyllum, assigné à la famille des Sapotaceae.
-Liste des variétés
-Selon Tropicos                                           (21 décembre 2017)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
+En classification phylogénétique APG III (2009), il est classé dans le genre Chrysophyllum, assigné à la famille des Sapotaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chrysophyllum_cainito</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysophyllum_cainito</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Chrysophyllum cainito var. b L.
 variété Chrysophyllum cainito var. caeruleum Jacq.
 variété Chrysophyllum cainito var. cainito
@@ -573,38 +624,113 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Chrysophyllum_cainito</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chrysophyllum_cainito</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ornement
-L'arbre est apprécié en horticulture, dans les régions chaudes, pour son aspect décoratif. Il est planté dans les jardins, surtout en Martinique[4].
-Alimentaire
-Le fruit est comestible par les humains, cru ou cuit, une fois débarrassé de la peau contenant un latex, désagréable au goût. Il est appelé pomme de lait ou caïmite, caïnite, cayemite ou encore pomme étoile. Il est principalement cultivé aux Antilles et en Afrique
-Médicinal
-L'infusion des feuilles de caïmitier est utilisée pour combattre le diabète et les douleurs rhumatismales[réf. nécessaire].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ornement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est apprécié en horticulture, dans les régions chaudes, pour son aspect décoratif. Il est planté dans les jardins, surtout en Martinique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chrysophyllum_cainito</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysophyllum_cainito</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est comestible par les humains, cru ou cuit, une fois débarrassé de la peau contenant un latex, désagréable au goût. Il est appelé pomme de lait ou caïmite, caïnite, cayemite ou encore pomme étoile. Il est principalement cultivé aux Antilles et en Afrique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chrysophyllum_cainito</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysophyllum_cainito</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Médicinal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'infusion des feuilles de caïmitier est utilisée pour combattre le diabète et les douleurs rhumatismales[réf. nécessaire].
 La décoction d'écorce est un tonique et simulant utilisé comme antitussif[réf. nécessaire].</t>
         </is>
       </c>
